--- a/imageCreationExcel/back/0901-1/0901-1_7.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_7.xlsx
@@ -486,41 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.099215611615795</v>
+        <v>0.7601165578257951</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>15.91471366986864</v>
+        <v>0.5896747081503644</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>21.62051284080882</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_3_contrast1.1_equalization16.0.jpg</t>
+          <t>1_J_sharpness0.76_gamma0.59_brightness22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -530,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9530945558629211</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>22.28325250064907</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F3" t="n">
-        <v>0.8671530029157735</v>
+        <v>15.27652091062257</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8230344991727523</v>
+        <v>0.9861738620205291</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_9_brightness22.0_contrast0.87_gamma0.82.jpg</t>
+          <t>2_Q_gamma0.95_brightness15.0_contrast0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -572,24 +570,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1724380737879218</v>
+        <v>1.021590039088991</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.011653704685256</v>
+        <v>1.01129271725848</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -606,7 +604,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_0_sharpness0.17_contrast1.0.jpg</t>
+          <t>3_2_contrast1.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -616,7 +614,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -625,32 +623,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9142528213772333</v>
+        <v>1.035532959277665</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18.90260303353821</v>
+        <v>0.6998584295393816</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>12.50168603147722</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_I_contrast0.91_brightness19.0.jpg</t>
+          <t>4_2_contrast1.0_gamma0.7_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -660,24 +656,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.901487616896306</v>
+        <v>0.6486210347965351</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8578630269174771</v>
+        <v>0.6197474092449755</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -685,14 +681,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17.34342180024395</v>
+        <v>16.67702715247643</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_C_gamma0.9_contrast0.86_equalization17.0.jpg</t>
+          <t>5_9_sharpness0.65_gamma0.62_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -702,39 +698,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.977676419448601</v>
+        <v>7.026905179489242</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9601830727552287</v>
+        <v>0.6433586054465807</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.5751470413017363</v>
+        <v>1.006545560595749</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_8_contrast0.98_sharpness0.96_gamma0.58.jpg</t>
+          <t>6_2_brightness7.0_gamma0.64_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -744,41 +740,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8925625772596646</v>
+        <v>3.091153344553085</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.3828938767729196</v>
+        <v>1.028473797383339</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9193547024723249</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_E_contrast0.89_sharpness0.38.jpg</t>
+          <t>7_I_brightness3.1_gamma1.0_contrast0.92.jpg</t>
         </is>
       </c>
     </row>
@@ -788,16 +782,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.139258245070284</v>
+        <v>0.6845330491833282</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -805,22 +799,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>24.93199111406058</v>
+        <v>15.65032267215447</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.5747955464428733</v>
+        <v>1.17938709691207</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_8_contrast1.1_brightness25.0_sharpness0.57.jpg</t>
+          <t>8_T_sharpness0.68_brightness16.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -835,19 +829,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6776125681191665</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0.365318950058239</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F10" t="n">
-        <v>3.410225557721331</v>
+        <v>0.05323237002753656</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -864,7 +858,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_S_sharpness0.37_brightness3.4.jpg</t>
+          <t>9_S_gamma0.68_sharpness0.053.jpg</t>
         </is>
       </c>
     </row>
@@ -874,39 +868,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7022534707196032</v>
+        <v>0.5981943845599917</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.137107209530893</v>
+        <v>6.181346617066039</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>23.46557252426469</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_7_gamma0.7_contrast1.1_equalization23.0.jpg</t>
+          <t>10_3_sharpness0.6_equalization6.2.jpg</t>
         </is>
       </c>
     </row>
@@ -916,24 +912,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.2616981742070893</v>
+        <v>1.174993383511959</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9209529715126016</v>
+        <v>0.7127474308379855</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -941,14 +937,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>15.80318323204151</v>
+        <v>16.43388630360705</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_S_sharpness0.26_contrast0.92_brightness16.0.jpg</t>
+          <t>11_0_contrast1.2_gamma0.71_brightness16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -958,7 +954,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,30 +963,32 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.031959749815234</v>
+        <v>0.9858085084581407</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8467605922574697</v>
+        <v>23.83817903645527</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5242359059636406</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_contrast1.0_gamma0.85_sharpness0.52.jpg</t>
+          <t>12_1_contrast0.99_brightness24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1000,16 +998,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.133520257773063</v>
+        <v>6.620928998921474</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1017,22 +1015,24 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.4090024446206022</v>
+        <v>0.04277408313595543</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>15.17305353186871</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_S_contrast1.1_sharpness0.41_equalization15.0.jpg</t>
+          <t>13_T_brightness6.6_sharpness0.043.jpg</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1051,32 +1051,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12.89931740531245</v>
+        <v>22.25830003532865</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.001463428711856</v>
+        <v>0.7195274987326015</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8673808238134185</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_I_brightness13.0_contrast1.0.jpg</t>
+          <t>14_C_brightness22.0_gamma0.72_sharpness0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -1086,16 +1084,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9010302600775795</v>
+        <v>29.82717611987697</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1103,7 +1101,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.108756413699352</v>
+        <v>0.8508281427687082</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1116,11 +1114,11 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_8_gamma0.9_contrast1.1.jpg</t>
+          <t>15_B_brightness30.0_contrast0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -1130,24 +1128,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.188762140346274</v>
+        <v>23.33007079092103</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>19.89158161649798</v>
+        <v>0.1085716800433011</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1164,7 +1162,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_Q_contrast1.2_brightness20.0.jpg</t>
+          <t>16_3_brightness23.0_sharpness0.11.jpg</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1172,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1183,7 +1181,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.7893544084087774</v>
+        <v>0.8534865293761738</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1191,24 +1189,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.105991365458866</v>
+        <v>0.8337546324581655</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>17.37858167353962</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_B_gamma0.79_contrast1.1.jpg</t>
+          <t>17_C_gamma0.85_contrast0.83_brightness17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1227,30 +1223,32 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.075932897378846</v>
+        <v>0.9279556105163721</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.823013133219588</v>
+        <v>9.672752762871529</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>19.84181721782673</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_B_contrast1.1_gamma0.82_equalization20.0.jpg</t>
+          <t>18_Q_contrast0.93_equalization9.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1260,39 +1258,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9775376169567718</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>11.37585483476584</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0.9691397337661086</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9874205094546953</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H20" t="n">
-        <v>20.53331596995415</v>
+        <v>0.439778405979435</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_T_sharpness0.97_contrast0.99_equalization21.0.jpg</t>
+          <t>19_2_contrast0.98_brightness11.0_sharpness0.44.jpg</t>
         </is>
       </c>
     </row>
@@ -1307,19 +1305,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6948993803715191</v>
+        <v>0.9655684643856461</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>21.07918952015941</v>
+        <v>0.5026894452420003</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1336,7 +1334,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_B_gamma0.69_brightness21.0.jpg</t>
+          <t>20_B_sharpness0.97_gamma0.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1346,39 +1344,41 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.872323498024971</v>
+        <v>1.167712880664061</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>29.42186966861925</v>
+        <v>10.769884419721</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>0.8590168083722928</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_J_sharpness0.87_brightness29.0_contrast0.86.jpg</t>
+          <t>21_S_contrast1.2_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1388,39 +1388,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.143979072727893</v>
+        <v>0.1083504192445455</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.032271273362863</v>
+        <v>23.74753650904219</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>28.7064960410798</v>
+        <v>0.6211994778034471</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_contrast1.1_gamma1.0_equalization29.0.jpg</t>
+          <t>22_9_sharpness0.11_brightness24.0_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -1430,16 +1430,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.011118016382372</v>
+        <v>0.9843337732616795</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1447,24 +1447,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>11.67211412297018</v>
+        <v>18.96370514931353</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8235449332384065</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_7_contrast1.0_brightness12.0.jpg</t>
+          <t>23_P_gamma0.98_brightness19.0_contrast0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1474,41 +1472,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.013147141150145</v>
+        <v>0.7241373589079577</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5736834792897179</v>
+        <v>0.2437646670365429</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>20.46483807440408</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_2_contrast1.0_gamma0.57.jpg</t>
+          <t>24_S_gamma0.72_sharpness0.24_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1518,39 +1514,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3897108001795867</v>
+        <v>0.9158453201429687</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.7098017475161325</v>
+        <v>23.28205564539057</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10.92155324358484</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_0_sharpness0.39_gamma0.71_equalization11.0.jpg</t>
+          <t>25_7_contrast0.92_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1558,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1569,15 +1567,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.023999151314434</v>
+        <v>1.155184914692588</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.1750140555227726</v>
+        <v>0.8043565409030332</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1585,14 +1583,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>24.42009078727452</v>
+        <v>17.35172039001218</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_2_contrast1.0_sharpness0.18_equalization24.0.jpg</t>
+          <t>26_C_contrast1.2_gamma0.8_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1600,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1611,32 +1609,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.02840024748905823</v>
+        <v>0.3351011554934068</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9947570430431485</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>10.35101632830034</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H28" t="n">
+        <v>17.08689088232225</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_1_sharpness0.028_equalization10.0.jpg</t>
+          <t>27_C_sharpness0.34_gamma0.99_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1642,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1655,30 +1651,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.145938227423543</v>
+        <v>0.1750361628819795</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9.376634787716551</v>
+        <v>0.8536637846024042</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.6346191725869368</v>
+        <v>18.41660350185563</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_E_sharpness0.15_brightness9.4_gamma0.63.jpg</t>
+          <t>28_2_sharpness0.18_gamma0.85_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1688,39 +1684,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.979016625195632</v>
+        <v>0.5482246784179559</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.071196992416896</v>
+        <v>5.817782780892109</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>12.92289857632178</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_2_gamma0.98_contrast1.1_equalization13.0.jpg</t>
+          <t>29_E_sharpness0.55_equalization5.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1730,24 +1728,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>28.83215888231504</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0.3537277635348082</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="F31" t="n">
-        <v>8.186144973523984</v>
+        <v>0.1861721046758452</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1760,11 +1758,11 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_C_sharpness0.35_equalization8.2.jpg</t>
+          <t>30_9_brightness29.0_sharpness0.19.jpg</t>
         </is>
       </c>
     </row>
@@ -1774,39 +1772,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8610817277280571</v>
+        <v>0.4451552721015141</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.486541289167667</v>
+        <v>7.869387746938405</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>0.8014901536799388</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_T_contrast0.86_brightness6.5_sharpness0.8.jpg</t>
+          <t>31_P_sharpness0.45_equalization7.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1816,39 +1816,41 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.726196637682114</v>
+        <v>5.644442541019428</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.02695372303222</v>
+        <v>1.01190473304059</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>18.68928867342972</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_P_gamma0.73_contrast1.0_brightness19.0.jpg</t>
+          <t>32_9_brightness5.6_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1860,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1867,15 +1869,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8195715647647103</v>
+        <v>1.052227880331854</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.7671813714007871</v>
+        <v>0.3654500147511067</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1883,14 +1885,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>12.06624584810054</v>
+        <v>22.97514692954861</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_J_contrast0.82_gamma0.77_equalization12.0.jpg</t>
+          <t>33_1_contrast1.1_sharpness0.37_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1900,16 +1902,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8237427429587385</v>
+        <v>1.018802540009057</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1917,22 +1919,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.2569836004494952</v>
+        <v>0.6742376508797185</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5.906272481498144</v>
+        <v>17.96361907093889</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_B_gamma0.82_sharpness0.26_brightness5.9.jpg</t>
+          <t>34_3_contrast1.0_sharpness0.67_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1942,24 +1944,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.66226402178944</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>6.442019600639898</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F36" t="n">
-        <v>0.5047593559142503</v>
+        <v>23.11800115095372</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1976,7 +1978,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_B_brightness6.4_gamma0.5.jpg</t>
+          <t>35_I_gamma0.66_brightness23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1986,16 +1988,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.5641618037393235</v>
+        <v>29.53465544104165</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2003,22 +2005,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.078324845509901</v>
+        <v>0.8399943755561309</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>0.6899738356988486</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_S_gamma0.56_contrast1.1_sharpness0.69.jpg</t>
+          <t>36_3_brightness30.0_contrast0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2032,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2037,7 +2041,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.7726402146851622</v>
+        <v>0.378490032536314</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2045,7 +2049,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>28.61102023029849</v>
+        <v>15.78108840124036</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2053,14 +2057,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.8741141070350885</v>
+        <v>0.9528466086131403</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_3_sharpness0.77_brightness29.0_contrast0.87.jpg</t>
+          <t>37_2_sharpness0.38_brightness16.0_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2074,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2079,7 +2083,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9775939215193666</v>
+        <v>1.193612666787668</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2087,7 +2091,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.036285562892687</v>
+        <v>0.9755890616081209</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2095,14 +2099,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>27.91014031866381</v>
+        <v>21.18965359156197</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_T_contrast0.98_gamma1.0_equalization28.0.jpg</t>
+          <t>38_P_contrast1.2_gamma0.98_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2112,41 +2116,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6649465185403181</v>
+        <v>0.9813868394802733</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>23.29004822630655</v>
+        <v>0.8713798068403531</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7483835130796431</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_9_gamma0.66_brightness23.0.jpg</t>
+          <t>39_Q_contrast0.98_gamma0.87_sharpness0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -2156,24 +2158,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5034955801320136</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>0.4218472275642025</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F41" t="n">
-        <v>0.8363890465695282</v>
+        <v>0.6111831915254334</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2190,7 +2192,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_1_sharpness0.42_contrast0.84.jpg</t>
+          <t>40_P_gamma0.5_sharpness0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -2200,24 +2202,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5228521256342893</v>
+        <v>0.03359539469612605</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>14.94407562410871</v>
+        <v>25.89073938393695</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2230,11 +2232,11 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_S_gamma0.52_brightness15.0.jpg</t>
+          <t>41_J_sharpness0.034_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2244,24 +2246,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6202159606679316</v>
+        <v>21.23725651201361</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.1794947843385599</v>
+        <v>1.033037521100847</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2278,7 +2280,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_I_gamma0.62_sharpness0.18.jpg</t>
+          <t>42_S_brightness21.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2293,34 +2295,36 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.6851722312352881</v>
+        <v>0.7445548756564982</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.6078509095431834</v>
+        <v>24.49893281939906</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>28.37298005873938</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_1_sharpness0.69_gamma0.61_equalization28.0.jpg</t>
+          <t>43_1_gamma0.74_brightness24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2330,39 +2334,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6.035213573979976</v>
+        <v>0.578513970855532</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8753064611093495</v>
+        <v>0.9383620541327742</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.02897040539201234</v>
+        <v>15.69521312089593</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_brightness6.0_gamma0.88_sharpness0.029.jpg</t>
+          <t>44_7_gamma0.58_contrast0.94_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2372,24 +2376,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.857540846450919</v>
+        <v>0.9562150062902961</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.7889594376173306</v>
+        <v>0.857313851425515</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2397,14 +2401,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>27.39144314267564</v>
+        <v>5.949253970452947</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_I_contrast0.86_gamma0.79_equalization27.0.jpg</t>
+          <t>45_T_gamma0.96_contrast0.86_equalization5.9.jpg</t>
         </is>
       </c>
     </row>
@@ -2414,16 +2418,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.003436710684378</v>
+        <v>0.7525259970985607</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2431,7 +2435,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10.22178469542958</v>
+        <v>16.01082691753232</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2448,7 +2452,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_3_contrast1.0_equalization10.0.jpg</t>
+          <t>46_I_gamma0.75_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2463,19 +2467,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.4927945545459105</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>21.52802173194461</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F48" t="n">
-        <v>0.3297507771709923</v>
+        <v>17.80639998903101</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2483,14 +2487,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.8839016665143439</v>
+        <v>1.08127751412897</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_brightness22.0_sharpness0.33_contrast0.88.jpg</t>
+          <t>47_P_sharpness0.49_brightness18.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2500,39 +2504,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.5079015993647511</v>
+        <v>0.8472297887489468</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.7770348310600541</v>
+        <v>7.400417680285615</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>19.98332362407142</v>
+        <v>0.525185116588671</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_B_sharpness0.51_gamma0.78_equalization20.0.jpg</t>
+          <t>48_1_contrast0.85_brightness7.4_gamma0.53.jpg</t>
         </is>
       </c>
     </row>
